--- a/BalanceSheet/SJM_bal.xlsx
+++ b/BalanceSheet/SJM_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>46600000.0</v>
+        <v>898000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1000000.0</v>
+        <v>994000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-98500000.0</v>
+        <v>995000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>60600000.0</v>
+        <v>895000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>54000000.0</v>
+        <v>959000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1013300000.0</v>
@@ -1876,19 +1876,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>35200000.0</v>
+        <v>897000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>66400000.0</v>
+        <v>857000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>41100000.0</v>
+        <v>781000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>169300000.0</v>
+        <v>782000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>53600000.0</v>
+        <v>575000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>521800000.0</v>
@@ -3203,7 +3203,7 @@
         <v>1354000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>7600000.0</v>
+        <v>1352000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1364000000.0</v>
